--- a/standard_helices.xlsx
+++ b/standard_helices.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="249">
   <si>
     <t xml:space="preserve">High resolution</t>
   </si>
@@ -68,6 +68,7 @@
         <color rgb="FF006100"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -122,6 +123,7 @@
         <color rgb="FF006100"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -163,43 +165,49 @@
     <t xml:space="preserve">78-92</t>
   </si>
   <si>
+    <t xml:space="preserve">PRO:130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4rek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO:61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-86</t>
+  </si>
+  <si>
     <t xml:space="preserve">Length &lt; 6 CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4rek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78-86</t>
   </si>
   <si>
     <t xml:space="preserve">113-118</t>
@@ -275,6 +283,7 @@
         <color rgb="FF006100"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -437,6 +446,7 @@
         <color rgb="FF006100"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -464,6 +474,7 @@
         <color rgb="FF9C0006"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -530,6 +541,7 @@
         <color rgb="FF006100"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">　</t>
     </r>
@@ -709,19 +721,16 @@
     <t xml:space="preserve">2862-2881</t>
   </si>
   <si>
-    <t xml:space="preserve">2863-2880</t>
+    <t xml:space="preserve">2863-2878</t>
   </si>
   <si>
     <t xml:space="preserve">2862-2880</t>
   </si>
   <si>
-    <t xml:space="preserve">2863-2878</t>
-  </si>
-  <si>
     <t xml:space="preserve">2885-2911</t>
   </si>
   <si>
-    <t xml:space="preserve">2891-2910</t>
+    <t xml:space="preserve">2886-2910</t>
   </si>
   <si>
     <t xml:space="preserve">2882-2893</t>
@@ -882,11 +891,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -922,6 +932,7 @@
       <color rgb="FF006100"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -946,9 +957,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1017,11 +1036,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1076,6 +1101,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1176,7 +1205,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1192,11 +1221,11 @@
   </sheetPr>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1379,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1440,17 +1469,17 @@
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="11" t="s">
-        <v>35</v>
+      <c r="G15" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>17</v>
@@ -1465,30 +1494,30 @@
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="10" t="s">
@@ -1499,32 +1528,32 @@
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="10" t="s">
@@ -1535,32 +1564,32 @@
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="8"/>
@@ -1569,16 +1598,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -1586,16 +1615,16 @@
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -1603,17 +1632,17 @@
       <c r="A25" s="1"/>
       <c r="B25" s="9"/>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,7 +1651,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="13"/>
       <c r="E26" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="3"/>
@@ -1631,14 +1660,14 @@
       <c r="A27" s="1"/>
       <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -1648,7 +1677,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="12"/>
@@ -1657,16 +1686,16 @@
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -1676,7 +1705,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -1686,7 +1715,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="7"/>
       <c r="E31" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G31" s="12"/>
     </row>
@@ -1694,33 +1723,33 @@
       <c r="A32" s="1"/>
       <c r="B32" s="9"/>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="9"/>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33" s="13"/>
     </row>
@@ -1728,33 +1757,33 @@
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -1763,8 +1792,8 @@
       <c r="B36" s="9"/>
       <c r="C36" s="3"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="16" t="s">
-        <v>93</v>
+      <c r="E36" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="12"/>
@@ -1772,54 +1801,54 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -1827,24 +1856,24 @@
       <c r="A40" s="1"/>
       <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>17</v>
@@ -1852,21 +1881,21 @@
       <c r="E41" s="7"/>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -1876,7 +1905,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="12"/>
@@ -1885,14 +1914,14 @@
       <c r="A44" s="1"/>
       <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="E44" s="16"/>
       <c r="F44" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G44" s="10"/>
     </row>
@@ -1900,16 +1929,16 @@
       <c r="A45" s="1"/>
       <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -1917,16 +1946,16 @@
       <c r="A46" s="1"/>
       <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G46" s="10"/>
     </row>
@@ -1935,8 +1964,8 @@
       <c r="B47" s="9"/>
       <c r="C47" s="3"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="18" t="s">
-        <v>120</v>
+      <c r="E47" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="12"/>
@@ -1945,16 +1974,16 @@
       <c r="A48" s="1"/>
       <c r="B48" s="9"/>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -1962,19 +1991,19 @@
       <c r="A49" s="1"/>
       <c r="B49" s="9"/>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2011,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="3"/>
       <c r="F50" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1990,16 +2019,16 @@
       <c r="A51" s="1"/>
       <c r="B51" s="9"/>
       <c r="C51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -2007,712 +2036,710 @@
       <c r="A52" s="1"/>
       <c r="B52" s="9"/>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="19" t="s">
-        <v>35</v>
+      <c r="E53" s="15"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
-      <c r="B54" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="B54" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="C54" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="D54" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="18"/>
+      <c r="E54" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
-      <c r="C55" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="C55" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" s="19"/>
+      <c r="D55" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="D56" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="17"/>
+      <c r="E56" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
-      <c r="B61" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="B61" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="C61" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="D61" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="E61" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
-      <c r="C62" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="18" t="s">
+      <c r="C62" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="D62" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="G62" s="18"/>
+      <c r="E62" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="17" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="19" t="s">
-        <v>35</v>
+      <c r="E63" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="17" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="19" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="D66" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="19" t="s">
-        <v>35</v>
+      <c r="E67" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="19" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="17" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="D69" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="E69" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="19" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="19" t="s">
-        <v>35</v>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
-      <c r="B71" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="19" t="s">
+      <c r="B71" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="19" t="s">
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
-      <c r="C72" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="19" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="19" t="s">
-        <v>35</v>
+      <c r="E74" s="15"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="19"/>
+      <c r="E75" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="17" t="s">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="D76" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="19" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="D77" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="E77" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" s="18" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="D78" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="17"/>
+      <c r="F78" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
-      <c r="B79" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="C79" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19" t="s">
+      <c r="D79" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
-      <c r="C80" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="19" t="s">
+      <c r="C80" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="D80" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="E80" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="G80" s="19"/>
+      <c r="F80" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="17" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F81" s="19" t="s">
+      <c r="E81" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="F81" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G81" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="19" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="D82" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D83" s="17" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="E83" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G83" s="17"/>
+      <c r="F83" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" s="17" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="D85" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="E85" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="G85" s="18"/>
+      <c r="F85" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D86" s="17" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F86" s="17" t="s">
+      <c r="D86" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G86" s="19"/>
+      <c r="E86" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="18" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="D87" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="E87" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="G87" s="18"/>
+      <c r="F87" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="G88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C89" s="21" t="s">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="C89" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="19"/>
+      <c r="E89" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="21"/>
-      <c r="C90" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D90" s="17" t="s">
+      <c r="A90" s="22"/>
+      <c r="C90" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="19"/>
+      <c r="E90" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D91" s="19" t="s">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="19"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D92" s="17" t="s">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="19"/>
+      <c r="E92" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" s="17" t="s">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="19"/>
+      <c r="E93" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E94" s="17" t="s">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="D94" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G94" s="18"/>
+      <c r="F94" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G95" s="21"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G96" s="21"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" s="21"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D98" s="19" t="s">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="D98" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="E98" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G98" s="18"/>
+      <c r="F98" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/standard_helices.xlsx
+++ b/standard_helices.xlsx
@@ -817,7 +817,7 @@
     <t xml:space="preserve">124-149</t>
   </si>
   <si>
-    <t xml:space="preserve">126-146</t>
+    <t xml:space="preserve">126-149</t>
   </si>
   <si>
     <t xml:space="preserve">120-140</t>
@@ -1221,11 +1221,11 @@
   </sheetPr>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
